--- a/HLR & TC OF_TULIP MUSIC ACEDEMY.xlsx
+++ b/HLR & TC OF_TULIP MUSIC ACEDEMY.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="212">
   <si>
     <t>CREATED BY:</t>
   </si>
@@ -508,12 +510,215 @@
   <si>
     <t>user are ableto leave the website</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEFECT REPORT OF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TULIP MUSIC ACEDEMY</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFECT ID</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>DEFECT SUMMERY</t>
+  </si>
+  <si>
+    <t>DATA STEP</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>TYPE OF DEFECT</t>
+  </si>
+  <si>
+    <t>SEVIORITY</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ASSIGN BY</t>
+  </si>
+  <si>
+    <t>ASSIGN TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user are click on the logo but  able to naviagate the reflection  </t>
+  </si>
+  <si>
+    <t>1. LAPTOP(HP) 2.INTEL 5TH GEN. 3CHROME BROWSER</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on logo</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY DEFECT</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>user enter invalid mobile number and not able to access through 10 digit</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on login.4]enter mobile number</t>
+  </si>
+  <si>
+    <t>user enter special charcter to login but not able to access through special character</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on login.4]enter special charcter</t>
+  </si>
+  <si>
+    <t>user are show &amp; buy selected iteams but also show unselected item in the list</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on login.4]buy instruments</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>asign</t>
+  </si>
+  <si>
+    <t>USER INTERFACE DEFECT</t>
+  </si>
+  <si>
+    <t>user are able to show selected course But display a different course</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on login.4]open course</t>
+  </si>
+  <si>
+    <t>user are able to save acedemy videos in profile but show unsave videos.</t>
+  </si>
+  <si>
+    <t>1]open website.2]open mainpage.3]click on login.4]Save videos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TEST SCENARIO OF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TULIP MUSIC ACEDEMY</t>
+    </r>
+  </si>
+  <si>
+    <t>POSITIVE TEST SCENARIO</t>
+  </si>
+  <si>
+    <t>NAGATIVE TEST SCENARIO</t>
+  </si>
+  <si>
+    <t>TS ID</t>
+  </si>
+  <si>
+    <t>LOGO not reflected when user click on logo</t>
+  </si>
+  <si>
+    <t>sometime logo response when website work slow</t>
+  </si>
+  <si>
+    <t>login &amp; registration process smoothly</t>
+  </si>
+  <si>
+    <t>so many user can use this at the same time then login process is slow</t>
+  </si>
+  <si>
+    <t>user can show different course on website</t>
+  </si>
+  <si>
+    <t>some courses are not available due to some website issues</t>
+  </si>
+  <si>
+    <t>ALL PAGES TEST SCENARIO</t>
+  </si>
+  <si>
+    <t>user can show or buy instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can show unselected instruments </t>
+  </si>
+  <si>
+    <t>user are show about acedemy</t>
+  </si>
+  <si>
+    <t>some informations are missing so user can not satisfied</t>
+  </si>
+  <si>
+    <t>title size fonts are different sometime</t>
+  </si>
+  <si>
+    <t>department section work properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not able to show about department because of some issues</t>
+  </si>
+  <si>
+    <t>all instruments available for sell</t>
+  </si>
+  <si>
+    <t>instruments are available but cant buy</t>
+  </si>
+  <si>
+    <t>show acedemy videos</t>
+  </si>
+  <si>
+    <t>show different videos</t>
+  </si>
+  <si>
+    <t>show or get certificate of user</t>
+  </si>
+  <si>
+    <t>informations are wrong on certificates</t>
+  </si>
+  <si>
+    <t>profile is work properly</t>
+  </si>
+  <si>
+    <t>working slow</t>
+  </si>
+  <si>
+    <t>some issues created in logut process</t>
+  </si>
+  <si>
+    <t>logout process working properly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +776,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -605,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -659,6 +869,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -944,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,10 +1200,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="36.75">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1053,10 +1272,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.75">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -1147,10 +1366,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36.75">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="19"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -1266,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J19"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1310,23 +1529,23 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="36.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
@@ -1367,13 +1586,13 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1397,13 +1616,13 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1424,28 +1643,28 @@
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>64</v>
       </c>
       <c r="J12" s="6"/>
@@ -1454,31 +1673,31 @@
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1486,31 +1705,31 @@
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1518,31 +1737,31 @@
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1550,31 +1769,31 @@
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1585,16 +1804,16 @@
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -1615,25 +1834,25 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="15" t="s">
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="6"/>
@@ -1645,28 +1864,28 @@
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1677,25 +1896,25 @@
       <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>64</v>
       </c>
       <c r="J20" s="6"/>
@@ -1710,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1753,16 +1972,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
@@ -1797,246 +2016,246 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="30">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="45">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="60">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="45">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="G17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2050,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2094,16 +2313,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
@@ -2147,22 +2366,22 @@
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2205,22 +2424,22 @@
       <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2234,22 +2453,22 @@
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2263,22 +2482,22 @@
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>132</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2292,22 +2511,22 @@
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2321,22 +2540,22 @@
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="G17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2350,7 +2569,7 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2362,10 +2581,10 @@
       <c r="G18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2379,7 +2598,7 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2391,10 +2610,10 @@
       <c r="G19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2408,22 +2627,22 @@
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2437,7 +2656,7 @@
       <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2446,13 +2665,13 @@
       <c r="F21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2466,7 +2685,7 @@
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2475,13 +2694,13 @@
       <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="G22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2491,4 +2710,477 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120">
+      <c r="A10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105">
+      <c r="A11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="105">
+      <c r="A12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="105">
+      <c r="A13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>